--- a/data/lei.xlsx
+++ b/data/lei.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,23 +481,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>101.6</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>99.7</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -506,10 +508,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -518,10 +520,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -530,10 +532,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -542,10 +544,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -554,10 +556,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -566,10 +568,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -578,10 +580,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -590,10 +592,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>102.4</v>
+        <v>101.8</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -602,10 +604,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -614,10 +616,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -626,10 +628,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -638,10 +640,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -650,10 +652,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>103.9</v>
+        <v>103</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -662,10 +664,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>104.6</v>
+        <v>103.9</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -674,10 +676,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>105.4</v>
+        <v>104.6</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -686,10 +688,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>105.8</v>
+        <v>105.4</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -698,10 +700,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -710,10 +712,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>106.7</v>
+        <v>106.1</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -722,10 +724,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>107.4</v>
+        <v>106.7</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -734,10 +736,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>108.3</v>
+        <v>107.4</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -746,10 +748,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>109.6</v>
+        <v>108.3</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -758,10 +760,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>110.2</v>
+        <v>109.6</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -770,10 +772,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>110.7</v>
+        <v>110.2</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -782,10 +784,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>111.5</v>
+        <v>110.7</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -794,10 +796,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>112.5</v>
+        <v>111.5</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -806,10 +808,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>113.5</v>
+        <v>112.5</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -818,10 +820,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>114.1</v>
+        <v>113.5</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -830,10 +832,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>114.4</v>
+        <v>114.1</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -842,10 +844,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>115.1</v>
+        <v>114.4</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -854,10 +856,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>115.9</v>
+        <v>115.1</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -866,10 +868,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>116.9</v>
+        <v>115.9</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -878,10 +880,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>117.6</v>
+        <v>116.9</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -890,7 +892,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>117.6</v>
@@ -902,10 +904,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>117.2</v>
+        <v>117.6</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -914,10 +916,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>117.8</v>
+        <v>117.2</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -926,10 +928,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>116.9</v>
+        <v>117.8</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -938,10 +940,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>116.2</v>
+        <v>116.9</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -950,10 +952,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>115.4</v>
+        <v>116.2</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -962,7 +964,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>115.4</v>
@@ -974,10 +976,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>114.7</v>
+        <v>115.4</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -986,10 +988,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>113.6</v>
+        <v>114.7</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -998,10 +1000,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>112.7</v>
+        <v>113.6</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1010,10 +1012,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>112</v>
+        <v>112.7</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1022,10 +1024,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>110.9</v>
+        <v>112</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1034,10 +1036,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>109.9</v>
+        <v>110.9</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1046,10 +1048,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1058,10 +1060,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>109.1</v>
+        <v>109.8</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1070,10 +1072,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44136</v>
-      </c>
-      <c r="B51" t="n">
-        <v>108.4</v>
+        <v>44166</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>109.1</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1082,10 +1084,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B52" t="n">
-        <v>107.8</v>
+        <v>108.4</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1094,10 +1096,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B53" t="n">
-        <v>107.3</v>
+        <v>107.8</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1106,10 +1108,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B54" t="n">
-        <v>106.8</v>
+        <v>107.3</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1118,10 +1120,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B55" t="n">
-        <v>105.9</v>
+        <v>106.8</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1130,10 +1132,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B56" t="n">
-        <v>104.2</v>
+        <v>105.9</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1142,10 +1144,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B57" t="n">
-        <v>102.1</v>
+        <v>104.2</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1154,10 +1156,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B58" t="n">
-        <v>100.3</v>
+        <v>102.1</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1166,10 +1168,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B59" t="n">
-        <v>106.2</v>
+        <v>100.3</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1178,10 +1180,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B60" t="n">
-        <v>111.4</v>
+        <v>106.2</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1190,7 +1192,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B61" t="n">
         <v>111.4</v>
@@ -1202,10 +1204,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B62" t="n">
-        <v>110.9</v>
+        <v>111.4</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1214,10 +1216,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B63" t="n">
-        <v>111.2</v>
+        <v>110.9</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1226,10 +1228,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B64" t="n">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1238,10 +1240,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B65" t="n">
-        <v>111.8</v>
+        <v>111.3</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1250,10 +1252,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B66" t="n">
-        <v>112.1</v>
+        <v>111.8</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1262,10 +1264,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B67" t="n">
-        <v>112.3</v>
+        <v>112.1</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1274,10 +1276,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B68" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="C68">
         <f>(B68/B80-1)*100</f>
@@ -1286,10 +1288,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B69" t="n">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="C69">
         <f>(B69/B81-1)*100</f>
@@ -1298,10 +1300,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B70" t="n">
-        <v>112.5</v>
+        <v>112.3</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1310,10 +1312,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B71" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1322,10 +1324,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B72" t="n">
-        <v>112.1</v>
+        <v>112.4</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1334,10 +1336,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B73" t="n">
-        <v>111.6</v>
+        <v>112.1</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1346,10 +1348,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B74" t="n">
-        <v>111.8</v>
+        <v>111.6</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1358,10 +1360,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B75" t="n">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1370,10 +1372,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B76" t="n">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1382,7 +1384,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B77" t="n">
         <v>112.1</v>
@@ -1394,10 +1396,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B78" t="n">
-        <v>111.4</v>
+        <v>112.1</v>
       </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
@@ -1406,10 +1408,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B79" t="n">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="C79">
         <f>(B79/B91-1)*100</f>
@@ -1418,10 +1420,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B80" t="n">
-        <v>110.6</v>
+        <v>111.2</v>
       </c>
       <c r="C80">
         <f>(B80/B92-1)*100</f>
@@ -1430,10 +1432,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B81" t="n">
-        <v>110</v>
+        <v>110.6</v>
       </c>
       <c r="C81">
         <f>(B81/B93-1)*100</f>
@@ -1442,10 +1444,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B82" t="n">
-        <v>109.7</v>
+        <v>110</v>
       </c>
       <c r="C82">
         <f>(B82/B94-1)*100</f>
@@ -1454,10 +1456,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B83" t="n">
-        <v>109</v>
+        <v>109.7</v>
       </c>
       <c r="C83">
         <f>(B83/B95-1)*100</f>
@@ -1466,10 +1468,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B84" t="n">
-        <v>108.7</v>
+        <v>109</v>
       </c>
       <c r="C84">
         <f>(B84/B96-1)*100</f>
@@ -1478,10 +1480,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B85" t="n">
-        <v>107.9</v>
+        <v>108.7</v>
       </c>
       <c r="C85">
         <f>(B85/B97-1)*100</f>
@@ -1490,10 +1492,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B86" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C86">
         <f>(B86/B98-1)*100</f>
@@ -1502,10 +1504,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B87" t="n">
-        <v>106.4</v>
+        <v>107</v>
       </c>
       <c r="C87">
         <f>(B87/B99-1)*100</f>
@@ -1514,10 +1516,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B88" t="n">
-        <v>105.9</v>
+        <v>106.4</v>
       </c>
       <c r="C88">
         <f>(B88/B100-1)*100</f>
@@ -1526,10 +1528,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B89" t="n">
-        <v>104.5</v>
+        <v>105.9</v>
       </c>
       <c r="C89">
         <f>(B89/B101-1)*100</f>
@@ -1538,10 +1540,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B90" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="C90">
         <f>(B90/B102-1)*100</f>
@@ -1550,10 +1552,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B91" t="n">
-        <v>103.8</v>
+        <v>104.3</v>
       </c>
       <c r="C91">
         <f>(B91/B103-1)*100</f>
@@ -1562,10 +1564,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B92" t="n">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="C92">
         <f>(B92/B104-1)*100</f>
@@ -1574,10 +1576,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B93" t="n">
-        <v>103.1</v>
+        <v>103.6</v>
       </c>
       <c r="C93">
         <f>(B93/B105-1)*100</f>
@@ -1586,10 +1588,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B94" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="C94">
         <f>(B94/B106-1)*100</f>
@@ -1598,10 +1600,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B95" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="C95">
         <f>(B95/B107-1)*100</f>
@@ -1610,10 +1612,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B96" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="C96">
         <f>(B96/B108-1)*100</f>
@@ -1622,10 +1624,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B97" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="C97">
         <f>(B97/B109-1)*100</f>
@@ -1634,10 +1636,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B98" t="n">
-        <v>100.8</v>
+        <v>101.5</v>
       </c>
       <c r="C98">
         <f>(B98/B110-1)*100</f>
@@ -1646,10 +1648,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B99" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="C99">
         <f>(B99/B111-1)*100</f>
@@ -1658,10 +1660,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B100" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="C100">
         <f>(B100/B112-1)*100</f>
@@ -1670,10 +1672,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B101" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="C101">
         <f>(B101/B113-1)*100</f>
@@ -1682,10 +1684,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B102" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="C102">
         <f>(B102/B114-1)*100</f>
@@ -1694,7 +1696,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B103" t="n">
         <v>100.2</v>
@@ -1706,10 +1708,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C104">
         <f>(B104/B116-1)*100</f>
@@ -1718,10 +1720,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B105" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C105">
         <f>(B105/B117-1)*100</f>
@@ -1730,7 +1732,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B106" t="n">
         <v>99.8</v>
@@ -1742,10 +1744,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B107" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C107">
         <f>(B107/B119-1)*100</f>
@@ -1754,7 +1756,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B108" t="n">
         <v>99.5</v>
@@ -1766,13 +1768,25 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B109" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C109">
         <f>(B109/B121-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B110" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C110">
+        <f>(B110/B122-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/lei.xlsx
+++ b/data/lei.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,23 +495,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>101.6</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>99.7</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -520,10 +522,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -532,10 +534,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -544,10 +546,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -556,10 +558,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -568,10 +570,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -580,10 +582,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -592,10 +594,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -604,10 +606,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>102.4</v>
+        <v>101.8</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -616,10 +618,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -628,10 +630,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -640,10 +642,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -652,10 +654,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -664,10 +666,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>103.9</v>
+        <v>103</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -676,10 +678,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>104.6</v>
+        <v>103.9</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -688,10 +690,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>105.4</v>
+        <v>104.6</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -700,10 +702,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>105.8</v>
+        <v>105.4</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -712,10 +714,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -724,10 +726,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>106.7</v>
+        <v>106.1</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -736,10 +738,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>107.4</v>
+        <v>106.7</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -748,10 +750,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>108.3</v>
+        <v>107.4</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -760,10 +762,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>109.6</v>
+        <v>108.3</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -772,10 +774,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>110.2</v>
+        <v>109.6</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -784,10 +786,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>110.7</v>
+        <v>110.2</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -796,10 +798,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>111.5</v>
+        <v>110.7</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -808,10 +810,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>112.5</v>
+        <v>111.5</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -820,10 +822,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>113.5</v>
+        <v>112.5</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -832,10 +834,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>114.1</v>
+        <v>113.5</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -844,10 +846,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>114.4</v>
+        <v>114.1</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -856,10 +858,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>115.1</v>
+        <v>114.4</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -868,10 +870,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>115.9</v>
+        <v>115.1</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -880,10 +882,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>116.9</v>
+        <v>115.9</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -892,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>117.6</v>
+        <v>116.9</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -904,7 +906,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>117.6</v>
@@ -916,10 +918,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>117.2</v>
+        <v>117.6</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -928,10 +930,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>117.8</v>
+        <v>117.2</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -940,10 +942,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>116.9</v>
+        <v>117.8</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -952,10 +954,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>116.2</v>
+        <v>116.9</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -964,10 +966,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>115.4</v>
+        <v>116.2</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -976,7 +978,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>115.4</v>
@@ -988,10 +990,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>114.7</v>
+        <v>115.4</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1000,10 +1002,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>113.6</v>
+        <v>114.7</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1012,10 +1014,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>112.7</v>
+        <v>113.6</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1024,10 +1026,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>112</v>
+        <v>112.7</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1036,10 +1038,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>110.9</v>
+        <v>112</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1048,10 +1050,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>109.9</v>
+        <v>110.9</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1060,10 +1062,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1072,10 +1074,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>109.1</v>
+        <v>109.8</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1084,10 +1086,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44136</v>
-      </c>
-      <c r="B52" t="n">
-        <v>108.4</v>
+        <v>44166</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>109.1</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1096,10 +1098,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B53" t="n">
-        <v>107.8</v>
+        <v>108.4</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1108,10 +1110,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B54" t="n">
-        <v>107.3</v>
+        <v>107.8</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1120,10 +1122,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B55" t="n">
-        <v>106.8</v>
+        <v>107.3</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1132,10 +1134,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B56" t="n">
-        <v>105.9</v>
+        <v>106.8</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1144,10 +1146,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B57" t="n">
-        <v>104.2</v>
+        <v>105.9</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1156,10 +1158,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B58" t="n">
-        <v>102.1</v>
+        <v>104.2</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1168,10 +1170,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B59" t="n">
-        <v>100.3</v>
+        <v>102.1</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1180,10 +1182,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B60" t="n">
-        <v>106.2</v>
+        <v>100.3</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1192,10 +1194,10 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B61" t="n">
-        <v>111.4</v>
+        <v>106.2</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1204,7 +1206,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B62" t="n">
         <v>111.4</v>
@@ -1216,10 +1218,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B63" t="n">
-        <v>110.9</v>
+        <v>111.4</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1228,10 +1230,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B64" t="n">
-        <v>111.2</v>
+        <v>110.9</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1240,10 +1242,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B65" t="n">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1252,10 +1254,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B66" t="n">
-        <v>111.8</v>
+        <v>111.3</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1264,10 +1266,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B67" t="n">
-        <v>112.1</v>
+        <v>111.8</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1276,10 +1278,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B68" t="n">
-        <v>112.3</v>
+        <v>112.1</v>
       </c>
       <c r="C68">
         <f>(B68/B80-1)*100</f>
@@ -1288,10 +1290,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B69" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="C69">
         <f>(B69/B81-1)*100</f>
@@ -1300,10 +1302,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B70" t="n">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1312,10 +1314,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B71" t="n">
-        <v>112.5</v>
+        <v>112.3</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1324,10 +1326,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B72" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1336,10 +1338,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B73" t="n">
-        <v>112.1</v>
+        <v>112.4</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1348,10 +1350,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B74" t="n">
-        <v>111.6</v>
+        <v>112.1</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1360,10 +1362,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B75" t="n">
-        <v>111.8</v>
+        <v>111.6</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1372,10 +1374,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B76" t="n">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1384,10 +1386,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B77" t="n">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1396,7 +1398,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B78" t="n">
         <v>112.1</v>
@@ -1408,10 +1410,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B79" t="n">
-        <v>111.4</v>
+        <v>112.1</v>
       </c>
       <c r="C79">
         <f>(B79/B91-1)*100</f>
@@ -1420,10 +1422,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B80" t="n">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="C80">
         <f>(B80/B92-1)*100</f>
@@ -1432,10 +1434,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B81" t="n">
-        <v>110.6</v>
+        <v>111.2</v>
       </c>
       <c r="C81">
         <f>(B81/B93-1)*100</f>
@@ -1444,10 +1446,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B82" t="n">
-        <v>110</v>
+        <v>110.6</v>
       </c>
       <c r="C82">
         <f>(B82/B94-1)*100</f>
@@ -1456,10 +1458,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B83" t="n">
-        <v>109.7</v>
+        <v>110</v>
       </c>
       <c r="C83">
         <f>(B83/B95-1)*100</f>
@@ -1468,10 +1470,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B84" t="n">
-        <v>109</v>
+        <v>109.7</v>
       </c>
       <c r="C84">
         <f>(B84/B96-1)*100</f>
@@ -1480,10 +1482,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B85" t="n">
-        <v>108.7</v>
+        <v>109</v>
       </c>
       <c r="C85">
         <f>(B85/B97-1)*100</f>
@@ -1492,10 +1494,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B86" t="n">
-        <v>107.9</v>
+        <v>108.7</v>
       </c>
       <c r="C86">
         <f>(B86/B98-1)*100</f>
@@ -1504,10 +1506,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B87" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C87">
         <f>(B87/B99-1)*100</f>
@@ -1516,10 +1518,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B88" t="n">
-        <v>106.4</v>
+        <v>107</v>
       </c>
       <c r="C88">
         <f>(B88/B100-1)*100</f>
@@ -1528,10 +1530,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B89" t="n">
-        <v>105.9</v>
+        <v>106.4</v>
       </c>
       <c r="C89">
         <f>(B89/B101-1)*100</f>
@@ -1540,10 +1542,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B90" t="n">
-        <v>104.5</v>
+        <v>105.9</v>
       </c>
       <c r="C90">
         <f>(B90/B102-1)*100</f>
@@ -1552,10 +1554,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B91" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="C91">
         <f>(B91/B103-1)*100</f>
@@ -1564,10 +1566,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B92" t="n">
-        <v>103.8</v>
+        <v>104.3</v>
       </c>
       <c r="C92">
         <f>(B92/B104-1)*100</f>
@@ -1576,10 +1578,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B93" t="n">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="C93">
         <f>(B93/B105-1)*100</f>
@@ -1588,10 +1590,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B94" t="n">
-        <v>103.1</v>
+        <v>103.6</v>
       </c>
       <c r="C94">
         <f>(B94/B106-1)*100</f>
@@ -1600,10 +1602,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B95" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="C95">
         <f>(B95/B107-1)*100</f>
@@ -1612,10 +1614,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B96" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="C96">
         <f>(B96/B108-1)*100</f>
@@ -1624,10 +1626,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B97" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="C97">
         <f>(B97/B109-1)*100</f>
@@ -1636,10 +1638,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B98" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="C98">
         <f>(B98/B110-1)*100</f>
@@ -1648,10 +1650,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B99" t="n">
-        <v>100.8</v>
+        <v>101.5</v>
       </c>
       <c r="C99">
         <f>(B99/B111-1)*100</f>
@@ -1660,10 +1662,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B100" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="C100">
         <f>(B100/B112-1)*100</f>
@@ -1672,10 +1674,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B101" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="C101">
         <f>(B101/B113-1)*100</f>
@@ -1684,10 +1686,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B102" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="C102">
         <f>(B102/B114-1)*100</f>
@@ -1696,10 +1698,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B103" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="C103">
         <f>(B103/B115-1)*100</f>
@@ -1708,7 +1710,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B104" t="n">
         <v>100.2</v>
@@ -1720,10 +1722,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B105" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C105">
         <f>(B105/B117-1)*100</f>
@@ -1732,10 +1734,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B106" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C106">
         <f>(B106/B118-1)*100</f>
@@ -1744,7 +1746,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B107" t="n">
         <v>99.8</v>
@@ -1756,10 +1758,10 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B108" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C108">
         <f>(B108/B120-1)*100</f>
@@ -1768,7 +1770,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B109" t="n">
         <v>99.5</v>
@@ -1780,13 +1782,25 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B110" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C110">
         <f>(B110/B122-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B111" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C111">
+        <f>(B111/B123-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/lei.xlsx
+++ b/data/lei.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,11 +495,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -509,23 +509,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>101.6</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>99.7</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -534,10 +536,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -546,10 +548,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -558,10 +560,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -570,10 +572,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -582,10 +584,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -594,10 +596,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -606,10 +608,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -618,10 +620,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>102.4</v>
+        <v>101.8</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -630,10 +632,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -642,10 +644,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -654,10 +656,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -666,10 +668,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -678,10 +680,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>103.9</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -690,10 +692,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>104.6</v>
+        <v>103.9</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -702,10 +704,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>105.4</v>
+        <v>104.6</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -714,10 +716,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>105.8</v>
+        <v>105.4</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -726,10 +728,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -738,10 +740,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>106.7</v>
+        <v>106.1</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -750,10 +752,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>107.4</v>
+        <v>106.7</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -762,10 +764,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>108.3</v>
+        <v>107.4</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -774,10 +776,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>109.6</v>
+        <v>108.3</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -786,10 +788,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>110.2</v>
+        <v>109.6</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -798,10 +800,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>110.7</v>
+        <v>110.2</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -810,10 +812,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>111.5</v>
+        <v>110.7</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -822,10 +824,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>112.5</v>
+        <v>111.5</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -834,10 +836,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>113.5</v>
+        <v>112.5</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -846,10 +848,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>114.1</v>
+        <v>113.5</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -858,10 +860,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>114.4</v>
+        <v>114.1</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -870,10 +872,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>115.1</v>
+        <v>114.4</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -882,10 +884,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>115.9</v>
+        <v>115.1</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -894,10 +896,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>116.9</v>
+        <v>115.9</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -906,10 +908,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>117.6</v>
+        <v>116.9</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -918,7 +920,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>117.6</v>
@@ -930,10 +932,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>117.2</v>
+        <v>117.6</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -942,10 +944,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>117.8</v>
+        <v>117.2</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -954,10 +956,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>116.9</v>
+        <v>117.8</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -966,10 +968,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>116.2</v>
+        <v>116.9</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -978,10 +980,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>115.4</v>
+        <v>116.2</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -990,7 +992,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>115.4</v>
@@ -1002,10 +1004,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>114.7</v>
+        <v>115.4</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1014,10 +1016,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>113.6</v>
+        <v>114.7</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1026,10 +1028,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>112.7</v>
+        <v>113.6</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1038,10 +1040,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>112</v>
+        <v>112.7</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1050,10 +1052,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>110.9</v>
+        <v>112</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1062,10 +1064,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>109.9</v>
+        <v>110.9</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1074,10 +1076,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1086,10 +1088,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>109.1</v>
+        <v>109.8</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1098,10 +1100,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44136</v>
-      </c>
-      <c r="B53" t="n">
-        <v>108.4</v>
+        <v>44166</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>109.1</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1110,10 +1112,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B54" t="n">
-        <v>107.8</v>
+        <v>108.4</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1122,10 +1124,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B55" t="n">
-        <v>107.3</v>
+        <v>107.8</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1134,10 +1136,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B56" t="n">
-        <v>106.8</v>
+        <v>107.3</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1146,10 +1148,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B57" t="n">
-        <v>105.9</v>
+        <v>106.8</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1158,10 +1160,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B58" t="n">
-        <v>104.2</v>
+        <v>105.9</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1170,10 +1172,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B59" t="n">
-        <v>102.1</v>
+        <v>104.2</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1182,10 +1184,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B60" t="n">
-        <v>100.3</v>
+        <v>102.1</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1194,10 +1196,10 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B61" t="n">
-        <v>106.2</v>
+        <v>100.3</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1206,10 +1208,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B62" t="n">
-        <v>111.4</v>
+        <v>106.2</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1218,7 +1220,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B63" t="n">
         <v>111.4</v>
@@ -1230,10 +1232,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B64" t="n">
-        <v>110.9</v>
+        <v>111.4</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1242,10 +1244,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B65" t="n">
-        <v>111.2</v>
+        <v>110.9</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1254,10 +1256,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B66" t="n">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1266,10 +1268,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B67" t="n">
-        <v>111.8</v>
+        <v>111.3</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1278,10 +1280,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B68" t="n">
-        <v>112.1</v>
+        <v>111.8</v>
       </c>
       <c r="C68">
         <f>(B68/B80-1)*100</f>
@@ -1290,10 +1292,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B69" t="n">
-        <v>112.3</v>
+        <v>112.1</v>
       </c>
       <c r="C69">
         <f>(B69/B81-1)*100</f>
@@ -1302,10 +1304,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B70" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1314,10 +1316,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B71" t="n">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1326,10 +1328,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B72" t="n">
-        <v>112.5</v>
+        <v>112.3</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1338,10 +1340,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B73" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1350,10 +1352,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B74" t="n">
-        <v>112.1</v>
+        <v>112.4</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1362,10 +1364,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B75" t="n">
-        <v>111.6</v>
+        <v>112.1</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1374,10 +1376,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B76" t="n">
-        <v>111.8</v>
+        <v>111.6</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1386,10 +1388,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B77" t="n">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1398,10 +1400,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B78" t="n">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
@@ -1410,7 +1412,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B79" t="n">
         <v>112.1</v>
@@ -1422,10 +1424,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B80" t="n">
-        <v>111.4</v>
+        <v>112.1</v>
       </c>
       <c r="C80">
         <f>(B80/B92-1)*100</f>
@@ -1434,10 +1436,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B81" t="n">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="C81">
         <f>(B81/B93-1)*100</f>
@@ -1446,10 +1448,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B82" t="n">
-        <v>110.6</v>
+        <v>111.2</v>
       </c>
       <c r="C82">
         <f>(B82/B94-1)*100</f>
@@ -1458,10 +1460,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B83" t="n">
-        <v>110</v>
+        <v>110.6</v>
       </c>
       <c r="C83">
         <f>(B83/B95-1)*100</f>
@@ -1470,10 +1472,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B84" t="n">
-        <v>109.7</v>
+        <v>110</v>
       </c>
       <c r="C84">
         <f>(B84/B96-1)*100</f>
@@ -1482,10 +1484,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B85" t="n">
-        <v>109</v>
+        <v>109.7</v>
       </c>
       <c r="C85">
         <f>(B85/B97-1)*100</f>
@@ -1494,10 +1496,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B86" t="n">
-        <v>108.7</v>
+        <v>109</v>
       </c>
       <c r="C86">
         <f>(B86/B98-1)*100</f>
@@ -1506,10 +1508,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B87" t="n">
-        <v>107.9</v>
+        <v>108.7</v>
       </c>
       <c r="C87">
         <f>(B87/B99-1)*100</f>
@@ -1518,10 +1520,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B88" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C88">
         <f>(B88/B100-1)*100</f>
@@ -1530,10 +1532,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B89" t="n">
-        <v>106.4</v>
+        <v>107</v>
       </c>
       <c r="C89">
         <f>(B89/B101-1)*100</f>
@@ -1542,10 +1544,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B90" t="n">
-        <v>105.9</v>
+        <v>106.4</v>
       </c>
       <c r="C90">
         <f>(B90/B102-1)*100</f>
@@ -1554,10 +1556,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B91" t="n">
-        <v>104.5</v>
+        <v>105.9</v>
       </c>
       <c r="C91">
         <f>(B91/B103-1)*100</f>
@@ -1566,10 +1568,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B92" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="C92">
         <f>(B92/B104-1)*100</f>
@@ -1578,10 +1580,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B93" t="n">
-        <v>103.8</v>
+        <v>104.3</v>
       </c>
       <c r="C93">
         <f>(B93/B105-1)*100</f>
@@ -1590,10 +1592,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B94" t="n">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="C94">
         <f>(B94/B106-1)*100</f>
@@ -1602,10 +1604,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B95" t="n">
-        <v>103.1</v>
+        <v>103.6</v>
       </c>
       <c r="C95">
         <f>(B95/B107-1)*100</f>
@@ -1614,10 +1616,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B96" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="C96">
         <f>(B96/B108-1)*100</f>
@@ -1626,10 +1628,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B97" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="C97">
         <f>(B97/B109-1)*100</f>
@@ -1638,10 +1640,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B98" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="C98">
         <f>(B98/B110-1)*100</f>
@@ -1650,10 +1652,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B99" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="C99">
         <f>(B99/B111-1)*100</f>
@@ -1662,10 +1664,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B100" t="n">
-        <v>100.8</v>
+        <v>101.5</v>
       </c>
       <c r="C100">
         <f>(B100/B112-1)*100</f>
@@ -1674,10 +1676,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B101" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="C101">
         <f>(B101/B113-1)*100</f>
@@ -1686,10 +1688,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B102" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="C102">
         <f>(B102/B114-1)*100</f>
@@ -1698,10 +1700,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B103" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="C103">
         <f>(B103/B115-1)*100</f>
@@ -1710,10 +1712,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B104" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="C104">
         <f>(B104/B116-1)*100</f>
@@ -1722,7 +1724,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B105" t="n">
         <v>100.2</v>
@@ -1734,10 +1736,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B106" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C106">
         <f>(B106/B118-1)*100</f>
@@ -1746,10 +1748,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B107" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C107">
         <f>(B107/B119-1)*100</f>
@@ -1758,7 +1760,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B108" t="n">
         <v>99.8</v>
@@ -1770,10 +1772,10 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B109" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C109">
         <f>(B109/B121-1)*100</f>
@@ -1782,7 +1784,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B110" t="n">
         <v>99.5</v>
@@ -1794,13 +1796,25 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B111" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C111">
         <f>(B111/B123-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B112" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C112">
+        <f>(B112/B124-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/lei.xlsx
+++ b/data/lei.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,11 +495,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -509,11 +509,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -523,23 +523,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>101.6</v>
-      </c>
-      <c r="C5">
-        <f>(B5/B17-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>99.7</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -548,10 +550,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -560,10 +562,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -572,10 +574,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -584,10 +586,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -596,10 +598,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -608,10 +610,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -620,10 +622,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -632,10 +634,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>102.4</v>
+        <v>101.8</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -644,10 +646,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -656,10 +658,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -668,10 +670,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -680,10 +682,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -692,10 +694,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>103.9</v>
+        <v>103</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -704,10 +706,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>104.6</v>
+        <v>103.9</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -716,10 +718,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>105.4</v>
+        <v>104.6</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -728,10 +730,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>105.8</v>
+        <v>105.4</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -740,10 +742,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -752,10 +754,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>106.7</v>
+        <v>106.1</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -764,10 +766,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>107.4</v>
+        <v>106.7</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -776,10 +778,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>108.3</v>
+        <v>107.4</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -788,10 +790,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>109.6</v>
+        <v>108.3</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -800,10 +802,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>110.2</v>
+        <v>109.6</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -812,10 +814,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>110.7</v>
+        <v>110.2</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -824,10 +826,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>111.5</v>
+        <v>110.7</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -836,10 +838,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>112.5</v>
+        <v>111.5</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -848,10 +850,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>113.5</v>
+        <v>112.5</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -860,10 +862,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>114.1</v>
+        <v>113.5</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -872,10 +874,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>114.4</v>
+        <v>114.1</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -884,10 +886,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>115.1</v>
+        <v>114.4</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -896,10 +898,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>115.9</v>
+        <v>115.1</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -908,10 +910,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>116.9</v>
+        <v>115.9</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -920,10 +922,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>117.6</v>
+        <v>116.9</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -932,7 +934,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>117.6</v>
@@ -944,10 +946,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>117.2</v>
+        <v>117.6</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -956,10 +958,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>117.8</v>
+        <v>117.2</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -968,10 +970,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>116.9</v>
+        <v>117.8</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -980,10 +982,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>116.2</v>
+        <v>116.9</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -992,10 +994,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>115.4</v>
+        <v>116.2</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1004,7 +1006,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>115.4</v>
@@ -1016,10 +1018,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>114.7</v>
+        <v>115.4</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1028,10 +1030,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>113.6</v>
+        <v>114.7</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1040,10 +1042,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>112.7</v>
+        <v>113.6</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1052,10 +1054,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>112</v>
+        <v>112.7</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1064,10 +1066,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>110.9</v>
+        <v>112</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1076,10 +1078,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>109.9</v>
+        <v>110.9</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1088,10 +1090,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1100,10 +1102,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>109.1</v>
+        <v>109.8</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1112,10 +1114,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44136</v>
-      </c>
-      <c r="B54" t="n">
-        <v>108.4</v>
+        <v>44166</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>109.1</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1124,10 +1126,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B55" t="n">
-        <v>107.8</v>
+        <v>108.4</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1136,10 +1138,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B56" t="n">
-        <v>107.3</v>
+        <v>107.8</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1148,10 +1150,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B57" t="n">
-        <v>106.8</v>
+        <v>107.3</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1160,10 +1162,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B58" t="n">
-        <v>105.9</v>
+        <v>106.8</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1172,10 +1174,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B59" t="n">
-        <v>104.2</v>
+        <v>105.9</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1184,10 +1186,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B60" t="n">
-        <v>102.1</v>
+        <v>104.2</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1196,10 +1198,10 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B61" t="n">
-        <v>100.3</v>
+        <v>102.1</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1208,10 +1210,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B62" t="n">
-        <v>106.2</v>
+        <v>100.3</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1220,10 +1222,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B63" t="n">
-        <v>111.4</v>
+        <v>106.2</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1232,7 +1234,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B64" t="n">
         <v>111.4</v>
@@ -1244,10 +1246,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B65" t="n">
-        <v>110.9</v>
+        <v>111.4</v>
       </c>
       <c r="C65">
         <f>(B65/B77-1)*100</f>
@@ -1256,10 +1258,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B66" t="n">
-        <v>111.2</v>
+        <v>110.9</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1268,10 +1270,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B67" t="n">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1280,10 +1282,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B68" t="n">
-        <v>111.8</v>
+        <v>111.3</v>
       </c>
       <c r="C68">
         <f>(B68/B80-1)*100</f>
@@ -1292,10 +1294,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B69" t="n">
-        <v>112.1</v>
+        <v>111.8</v>
       </c>
       <c r="C69">
         <f>(B69/B81-1)*100</f>
@@ -1304,10 +1306,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B70" t="n">
-        <v>112.3</v>
+        <v>112.1</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1316,10 +1318,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B71" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1328,10 +1330,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B72" t="n">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1340,10 +1342,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B73" t="n">
-        <v>112.5</v>
+        <v>112.3</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1352,10 +1354,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B74" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1364,10 +1366,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B75" t="n">
-        <v>112.1</v>
+        <v>112.4</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1376,10 +1378,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B76" t="n">
-        <v>111.6</v>
+        <v>112.1</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1388,10 +1390,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B77" t="n">
-        <v>111.8</v>
+        <v>111.6</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1400,10 +1402,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B78" t="n">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
@@ -1412,10 +1414,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B79" t="n">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="C79">
         <f>(B79/B91-1)*100</f>
@@ -1424,7 +1426,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B80" t="n">
         <v>112.1</v>
@@ -1436,10 +1438,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B81" t="n">
-        <v>111.4</v>
+        <v>112.1</v>
       </c>
       <c r="C81">
         <f>(B81/B93-1)*100</f>
@@ -1448,10 +1450,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B82" t="n">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="C82">
         <f>(B82/B94-1)*100</f>
@@ -1460,10 +1462,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B83" t="n">
-        <v>110.6</v>
+        <v>111.2</v>
       </c>
       <c r="C83">
         <f>(B83/B95-1)*100</f>
@@ -1472,10 +1474,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B84" t="n">
-        <v>110</v>
+        <v>110.6</v>
       </c>
       <c r="C84">
         <f>(B84/B96-1)*100</f>
@@ -1484,10 +1486,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B85" t="n">
-        <v>109.7</v>
+        <v>110</v>
       </c>
       <c r="C85">
         <f>(B85/B97-1)*100</f>
@@ -1496,10 +1498,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B86" t="n">
-        <v>109</v>
+        <v>109.7</v>
       </c>
       <c r="C86">
         <f>(B86/B98-1)*100</f>
@@ -1508,10 +1510,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B87" t="n">
-        <v>108.7</v>
+        <v>109</v>
       </c>
       <c r="C87">
         <f>(B87/B99-1)*100</f>
@@ -1520,10 +1522,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B88" t="n">
-        <v>107.9</v>
+        <v>108.7</v>
       </c>
       <c r="C88">
         <f>(B88/B100-1)*100</f>
@@ -1532,10 +1534,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B89" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C89">
         <f>(B89/B101-1)*100</f>
@@ -1544,10 +1546,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B90" t="n">
-        <v>106.4</v>
+        <v>107</v>
       </c>
       <c r="C90">
         <f>(B90/B102-1)*100</f>
@@ -1556,10 +1558,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B91" t="n">
-        <v>105.9</v>
+        <v>106.4</v>
       </c>
       <c r="C91">
         <f>(B91/B103-1)*100</f>
@@ -1568,10 +1570,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B92" t="n">
-        <v>104.5</v>
+        <v>105.9</v>
       </c>
       <c r="C92">
         <f>(B92/B104-1)*100</f>
@@ -1580,10 +1582,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B93" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="C93">
         <f>(B93/B105-1)*100</f>
@@ -1592,10 +1594,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B94" t="n">
-        <v>103.8</v>
+        <v>104.3</v>
       </c>
       <c r="C94">
         <f>(B94/B106-1)*100</f>
@@ -1604,10 +1606,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B95" t="n">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="C95">
         <f>(B95/B107-1)*100</f>
@@ -1616,10 +1618,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B96" t="n">
-        <v>103.1</v>
+        <v>103.6</v>
       </c>
       <c r="C96">
         <f>(B96/B108-1)*100</f>
@@ -1628,10 +1630,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B97" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="C97">
         <f>(B97/B109-1)*100</f>
@@ -1640,10 +1642,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B98" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="C98">
         <f>(B98/B110-1)*100</f>
@@ -1652,10 +1654,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B99" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="C99">
         <f>(B99/B111-1)*100</f>
@@ -1664,10 +1666,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B100" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="C100">
         <f>(B100/B112-1)*100</f>
@@ -1676,10 +1678,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B101" t="n">
-        <v>100.8</v>
+        <v>101.5</v>
       </c>
       <c r="C101">
         <f>(B101/B113-1)*100</f>
@@ -1688,10 +1690,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B102" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="C102">
         <f>(B102/B114-1)*100</f>
@@ -1700,10 +1702,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B103" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="C103">
         <f>(B103/B115-1)*100</f>
@@ -1712,10 +1714,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B104" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="C104">
         <f>(B104/B116-1)*100</f>
@@ -1724,10 +1726,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B105" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="C105">
         <f>(B105/B117-1)*100</f>
@@ -1736,7 +1738,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B106" t="n">
         <v>100.2</v>
@@ -1748,10 +1750,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B107" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C107">
         <f>(B107/B119-1)*100</f>
@@ -1760,10 +1762,10 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B108" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C108">
         <f>(B108/B120-1)*100</f>
@@ -1772,7 +1774,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B109" t="n">
         <v>99.8</v>
@@ -1784,10 +1786,10 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B110" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C110">
         <f>(B110/B122-1)*100</f>
@@ -1796,7 +1798,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B111" t="n">
         <v>99.5</v>
@@ -1808,13 +1810,25 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B112" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C112">
         <f>(B112/B124-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B113" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C113">
+        <f>(B113/B125-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/lei.xlsx
+++ b/data/lei.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -495,11 +495,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -509,11 +509,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -523,11 +523,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -537,23 +537,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>101.6</v>
-      </c>
-      <c r="C6">
-        <f>(B6/B18-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>99.7</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -562,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -574,10 +576,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -586,10 +588,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -598,10 +600,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -610,10 +612,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -622,10 +624,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -634,10 +636,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -646,10 +648,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>102.4</v>
+        <v>101.8</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -658,10 +660,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -670,10 +672,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -682,10 +684,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -694,10 +696,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -706,10 +708,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>103.9</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -718,10 +720,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>104.6</v>
+        <v>103.9</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -730,10 +732,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>105.4</v>
+        <v>104.6</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -742,10 +744,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>105.8</v>
+        <v>105.4</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -754,10 +756,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -766,10 +768,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>106.7</v>
+        <v>106.1</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -778,10 +780,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>107.4</v>
+        <v>106.7</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -790,10 +792,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>108.3</v>
+        <v>107.4</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -802,10 +804,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>109.6</v>
+        <v>108.3</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -814,10 +816,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>110.2</v>
+        <v>109.6</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -826,10 +828,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>110.7</v>
+        <v>110.2</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -838,10 +840,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>111.5</v>
+        <v>110.7</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -850,10 +852,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>112.5</v>
+        <v>111.5</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -862,10 +864,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>113.5</v>
+        <v>112.5</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -874,10 +876,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>114.1</v>
+        <v>113.5</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -886,10 +888,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>114.4</v>
+        <v>114.1</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -898,10 +900,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>115.1</v>
+        <v>114.4</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -910,10 +912,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>115.9</v>
+        <v>115.1</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -922,10 +924,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>116.9</v>
+        <v>115.9</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -934,10 +936,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>117.6</v>
+        <v>116.9</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -946,7 +948,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>117.6</v>
@@ -958,10 +960,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>117.2</v>
+        <v>117.6</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -970,10 +972,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>117.8</v>
+        <v>117.2</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -982,10 +984,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>116.9</v>
+        <v>117.8</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -994,10 +996,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>116.2</v>
+        <v>116.9</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -1006,10 +1008,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>115.4</v>
+        <v>116.2</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -1018,7 +1020,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>115.4</v>
@@ -1030,10 +1032,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>114.7</v>
+        <v>115.4</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1042,10 +1044,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>113.6</v>
+        <v>114.7</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1054,10 +1056,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>112.7</v>
+        <v>113.6</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1066,10 +1068,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>112</v>
+        <v>112.7</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1078,10 +1080,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>110.9</v>
+        <v>112</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1090,10 +1092,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>109.9</v>
+        <v>110.9</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1102,10 +1104,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1114,10 +1116,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>109.1</v>
+        <v>109.8</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1126,10 +1128,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44136</v>
-      </c>
-      <c r="B55" t="n">
-        <v>108.4</v>
+        <v>44166</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>109.1</v>
       </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
@@ -1138,10 +1140,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B56" t="n">
-        <v>107.8</v>
+        <v>108.4</v>
       </c>
       <c r="C56">
         <f>(B56/B68-1)*100</f>
@@ -1150,10 +1152,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B57" t="n">
-        <v>107.3</v>
+        <v>107.8</v>
       </c>
       <c r="C57">
         <f>(B57/B69-1)*100</f>
@@ -1162,10 +1164,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B58" t="n">
-        <v>106.8</v>
+        <v>107.3</v>
       </c>
       <c r="C58">
         <f>(B58/B70-1)*100</f>
@@ -1174,10 +1176,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B59" t="n">
-        <v>105.9</v>
+        <v>106.8</v>
       </c>
       <c r="C59">
         <f>(B59/B71-1)*100</f>
@@ -1186,10 +1188,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B60" t="n">
-        <v>104.2</v>
+        <v>105.9</v>
       </c>
       <c r="C60">
         <f>(B60/B72-1)*100</f>
@@ -1198,10 +1200,10 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B61" t="n">
-        <v>102.1</v>
+        <v>104.2</v>
       </c>
       <c r="C61">
         <f>(B61/B73-1)*100</f>
@@ -1210,10 +1212,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B62" t="n">
-        <v>100.3</v>
+        <v>102.1</v>
       </c>
       <c r="C62">
         <f>(B62/B74-1)*100</f>
@@ -1222,10 +1224,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B63" t="n">
-        <v>106.2</v>
+        <v>100.3</v>
       </c>
       <c r="C63">
         <f>(B63/B75-1)*100</f>
@@ -1234,10 +1236,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B64" t="n">
-        <v>111.4</v>
+        <v>106.2</v>
       </c>
       <c r="C64">
         <f>(B64/B76-1)*100</f>
@@ -1246,7 +1248,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B65" t="n">
         <v>111.4</v>
@@ -1258,10 +1260,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B66" t="n">
-        <v>110.9</v>
+        <v>111.4</v>
       </c>
       <c r="C66">
         <f>(B66/B78-1)*100</f>
@@ -1270,10 +1272,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B67" t="n">
-        <v>111.2</v>
+        <v>110.9</v>
       </c>
       <c r="C67">
         <f>(B67/B79-1)*100</f>
@@ -1282,10 +1284,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B68" t="n">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="C68">
         <f>(B68/B80-1)*100</f>
@@ -1294,10 +1296,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B69" t="n">
-        <v>111.8</v>
+        <v>111.3</v>
       </c>
       <c r="C69">
         <f>(B69/B81-1)*100</f>
@@ -1306,10 +1308,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B70" t="n">
-        <v>112.1</v>
+        <v>111.8</v>
       </c>
       <c r="C70">
         <f>(B70/B82-1)*100</f>
@@ -1318,10 +1320,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B71" t="n">
-        <v>112.3</v>
+        <v>112.1</v>
       </c>
       <c r="C71">
         <f>(B71/B83-1)*100</f>
@@ -1330,10 +1332,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B72" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="C72">
         <f>(B72/B84-1)*100</f>
@@ -1342,10 +1344,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B73" t="n">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="C73">
         <f>(B73/B85-1)*100</f>
@@ -1354,10 +1356,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B74" t="n">
-        <v>112.5</v>
+        <v>112.3</v>
       </c>
       <c r="C74">
         <f>(B74/B86-1)*100</f>
@@ -1366,10 +1368,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B75" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="C75">
         <f>(B75/B87-1)*100</f>
@@ -1378,10 +1380,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B76" t="n">
-        <v>112.1</v>
+        <v>112.4</v>
       </c>
       <c r="C76">
         <f>(B76/B88-1)*100</f>
@@ -1390,10 +1392,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B77" t="n">
-        <v>111.6</v>
+        <v>112.1</v>
       </c>
       <c r="C77">
         <f>(B77/B89-1)*100</f>
@@ -1402,10 +1404,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B78" t="n">
-        <v>111.8</v>
+        <v>111.6</v>
       </c>
       <c r="C78">
         <f>(B78/B90-1)*100</f>
@@ -1414,10 +1416,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B79" t="n">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="C79">
         <f>(B79/B91-1)*100</f>
@@ -1426,10 +1428,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B80" t="n">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="C80">
         <f>(B80/B92-1)*100</f>
@@ -1438,7 +1440,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B81" t="n">
         <v>112.1</v>
@@ -1450,10 +1452,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B82" t="n">
-        <v>111.4</v>
+        <v>112.1</v>
       </c>
       <c r="C82">
         <f>(B82/B94-1)*100</f>
@@ -1462,10 +1464,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B83" t="n">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="C83">
         <f>(B83/B95-1)*100</f>
@@ -1474,10 +1476,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B84" t="n">
-        <v>110.6</v>
+        <v>111.2</v>
       </c>
       <c r="C84">
         <f>(B84/B96-1)*100</f>
@@ -1486,10 +1488,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B85" t="n">
-        <v>110</v>
+        <v>110.6</v>
       </c>
       <c r="C85">
         <f>(B85/B97-1)*100</f>
@@ -1498,10 +1500,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B86" t="n">
-        <v>109.7</v>
+        <v>110</v>
       </c>
       <c r="C86">
         <f>(B86/B98-1)*100</f>
@@ -1510,10 +1512,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B87" t="n">
-        <v>109</v>
+        <v>109.7</v>
       </c>
       <c r="C87">
         <f>(B87/B99-1)*100</f>
@@ -1522,10 +1524,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B88" t="n">
-        <v>108.7</v>
+        <v>109</v>
       </c>
       <c r="C88">
         <f>(B88/B100-1)*100</f>
@@ -1534,10 +1536,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B89" t="n">
-        <v>107.9</v>
+        <v>108.7</v>
       </c>
       <c r="C89">
         <f>(B89/B101-1)*100</f>
@@ -1546,10 +1548,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B90" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C90">
         <f>(B90/B102-1)*100</f>
@@ -1558,10 +1560,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B91" t="n">
-        <v>106.4</v>
+        <v>107</v>
       </c>
       <c r="C91">
         <f>(B91/B103-1)*100</f>
@@ -1570,10 +1572,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B92" t="n">
-        <v>105.9</v>
+        <v>106.4</v>
       </c>
       <c r="C92">
         <f>(B92/B104-1)*100</f>
@@ -1582,10 +1584,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B93" t="n">
-        <v>104.5</v>
+        <v>105.9</v>
       </c>
       <c r="C93">
         <f>(B93/B105-1)*100</f>
@@ -1594,10 +1596,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B94" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="C94">
         <f>(B94/B106-1)*100</f>
@@ -1606,10 +1608,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B95" t="n">
-        <v>103.8</v>
+        <v>104.3</v>
       </c>
       <c r="C95">
         <f>(B95/B107-1)*100</f>
@@ -1618,10 +1620,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B96" t="n">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="C96">
         <f>(B96/B108-1)*100</f>
@@ -1630,10 +1632,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B97" t="n">
-        <v>103.1</v>
+        <v>103.6</v>
       </c>
       <c r="C97">
         <f>(B97/B109-1)*100</f>
@@ -1642,10 +1644,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B98" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="C98">
         <f>(B98/B110-1)*100</f>
@@ -1654,10 +1656,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B99" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="C99">
         <f>(B99/B111-1)*100</f>
@@ -1666,10 +1668,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B100" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="C100">
         <f>(B100/B112-1)*100</f>
@@ -1678,10 +1680,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B101" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="C101">
         <f>(B101/B113-1)*100</f>
@@ -1690,10 +1692,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B102" t="n">
-        <v>100.8</v>
+        <v>101.5</v>
       </c>
       <c r="C102">
         <f>(B102/B114-1)*100</f>
@@ -1702,10 +1704,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B103" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="C103">
         <f>(B103/B115-1)*100</f>
@@ -1714,10 +1716,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B104" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="C104">
         <f>(B104/B116-1)*100</f>
@@ -1726,10 +1728,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="C105">
         <f>(B105/B117-1)*100</f>
@@ -1738,10 +1740,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B106" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="C106">
         <f>(B106/B118-1)*100</f>
@@ -1750,7 +1752,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B107" t="n">
         <v>100.2</v>
@@ -1762,10 +1764,10 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B108" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C108">
         <f>(B108/B120-1)*100</f>
@@ -1774,10 +1776,10 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B109" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C109">
         <f>(B109/B121-1)*100</f>
@@ -1786,7 +1788,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B110" t="n">
         <v>99.8</v>
@@ -1798,10 +1800,10 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B111" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C111">
         <f>(B111/B123-1)*100</f>
@@ -1810,7 +1812,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B112" t="n">
         <v>99.5</v>
@@ -1822,13 +1824,25 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B113" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C113">
         <f>(B113/B125-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B114" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C114">
+        <f>(B114/B126-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/lei.xlsx
+++ b/data/lei.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,758 +480,760 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.17</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.36</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.86</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.65</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.17</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>101.6</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>-1.45</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-3.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.23</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.68</v>
+        <v>-4.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.93</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.1</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.71</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.15</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.21</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>102.4</v>
+        <v>101.8</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.45</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.2</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.81</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.87</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.62</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>103.9</v>
+        <v>103</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.64</v>
+        <v>-7.62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>104.6</v>
+        <v>103.9</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.84</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>105.4</v>
+        <v>104.6</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.62</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>105.8</v>
+        <v>105.4</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.52</v>
+        <v>-7.62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.82</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>106.7</v>
+        <v>106.1</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.94</v>
+        <v>-7.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>107.4</v>
+        <v>106.7</v>
       </c>
       <c r="C27" t="n">
-        <v>-8.130000000000001</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>108.3</v>
+        <v>107.4</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.91</v>
+        <v>-8.130000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>109.6</v>
+        <v>108.3</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.8</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>110.2</v>
+        <v>109.6</v>
       </c>
       <c r="C30" t="n">
-        <v>-5.97</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>110.7</v>
+        <v>110.2</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.03</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>111.5</v>
+        <v>110.7</v>
       </c>
       <c r="C32" t="n">
-        <v>-4.62</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>112.5</v>
+        <v>111.5</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.18</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>113.5</v>
+        <v>112.5</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.65</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>114.1</v>
+        <v>113.5</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.13</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>114.4</v>
+        <v>114.1</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.26</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>115.1</v>
+        <v>114.4</v>
       </c>
       <c r="C37" t="n">
-        <v>1.32</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>115.9</v>
+        <v>115.1</v>
       </c>
       <c r="C38" t="n">
-        <v>2.84</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>116.9</v>
+        <v>115.9</v>
       </c>
       <c r="C39" t="n">
-        <v>4.37</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>117.6</v>
+        <v>116.9</v>
       </c>
       <c r="C40" t="n">
-        <v>6.04</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>117.6</v>
       </c>
       <c r="C41" t="n">
-        <v>7.01</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>117.2</v>
+        <v>117.6</v>
       </c>
       <c r="C42" t="n">
-        <v>6.74</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>117.8</v>
+        <v>117.2</v>
       </c>
       <c r="C43" t="n">
-        <v>7.97</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>116.9</v>
+        <v>117.8</v>
       </c>
       <c r="C44" t="n">
-        <v>7.84</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>116.2</v>
+        <v>116.9</v>
       </c>
       <c r="C45" t="n">
-        <v>7.79</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>115.4</v>
+        <v>116.2</v>
       </c>
       <c r="C46" t="n">
-        <v>7.55</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>115.4</v>
       </c>
       <c r="C47" t="n">
-        <v>8.050000000000001</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>114.7</v>
+        <v>115.4</v>
       </c>
       <c r="C48" t="n">
-        <v>8.31</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>113.6</v>
+        <v>114.7</v>
       </c>
       <c r="C49" t="n">
-        <v>9.02</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>112.7</v>
+        <v>113.6</v>
       </c>
       <c r="C50" t="n">
-        <v>10.38</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>112</v>
+        <v>112.7</v>
       </c>
       <c r="C51" t="n">
-        <v>11.67</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>110.9</v>
+        <v>112</v>
       </c>
       <c r="C52" t="n">
-        <v>4.43</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>109.9</v>
+        <v>110.9</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.35</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.44</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>109.1</v>
+        <v>109.8</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.62</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44136</v>
-      </c>
-      <c r="B56" t="n">
-        <v>108.4</v>
+        <v>44166</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>109.1</v>
       </c>
       <c r="C56" t="n">
-        <v>-2.52</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B57" t="n">
-        <v>107.8</v>
+        <v>108.4</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.14</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B58" t="n">
-        <v>107.3</v>
+        <v>107.8</v>
       </c>
       <c r="C58" t="n">
-        <v>-4.03</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B59" t="n">
-        <v>106.8</v>
+        <v>107.3</v>
       </c>
       <c r="C59" t="n">
-        <v>-4.73</v>
+        <v>-4.03</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B60" t="n">
-        <v>105.9</v>
+        <v>106.8</v>
       </c>
       <c r="C60" t="n">
-        <v>-5.7</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B61" t="n">
-        <v>104.2</v>
+        <v>105.9</v>
       </c>
       <c r="C61" t="n">
-        <v>-7.13</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B62" t="n">
-        <v>102.1</v>
+        <v>104.2</v>
       </c>
       <c r="C62" t="n">
-        <v>-9.08</v>
+        <v>-7.13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B63" t="n">
-        <v>100.3</v>
+        <v>102.1</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.84</v>
+        <v>-9.08</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B64" t="n">
-        <v>106.2</v>
+        <v>100.3</v>
       </c>
       <c r="C64" t="n">
-        <v>-5.52</v>
+        <v>-10.84</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B65" t="n">
-        <v>111.4</v>
+        <v>106.2</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.62</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B66" t="n">
         <v>111.4</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.18</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B67" t="n">
-        <v>110.9</v>
+        <v>111.4</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B68" t="n">
-        <v>111.2</v>
+        <v>110.9</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.71</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B69" t="n">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="C69" t="n">
         <v>-0.71</v>
@@ -1239,415 +1241,417 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B70" t="n">
-        <v>111.8</v>
+        <v>111.3</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.27</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B71" t="n">
-        <v>112.1</v>
+        <v>111.8</v>
       </c>
       <c r="C71" t="n">
-        <v>0.63</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B72" t="n">
-        <v>112.3</v>
+        <v>112.1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.99</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B73" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="C73" t="n">
-        <v>1.45</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B74" t="n">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="C74" t="n">
-        <v>2.09</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B75" t="n">
-        <v>112.5</v>
+        <v>112.3</v>
       </c>
       <c r="C75" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B76" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="C76" t="n">
-        <v>3.12</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B77" t="n">
-        <v>112.1</v>
+        <v>112.4</v>
       </c>
       <c r="C77" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B78" t="n">
-        <v>111.6</v>
+        <v>112.1</v>
       </c>
       <c r="C78" t="n">
-        <v>3.43</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B79" t="n">
-        <v>111.8</v>
+        <v>111.6</v>
       </c>
       <c r="C79" t="n">
-        <v>4.49</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B80" t="n">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="C80" t="n">
-        <v>5.26</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B81" t="n">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="C81" t="n">
-        <v>5.85</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B82" t="n">
         <v>112.1</v>
       </c>
       <c r="C82" t="n">
-        <v>7.27</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B83" t="n">
-        <v>111.4</v>
+        <v>112.1</v>
       </c>
       <c r="C83" t="n">
-        <v>6.81</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B84" t="n">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="C84" t="n">
-        <v>7.13</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B85" t="n">
-        <v>110.6</v>
+        <v>111.2</v>
       </c>
       <c r="C85" t="n">
-        <v>6.76</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B86" t="n">
-        <v>110</v>
+        <v>110.6</v>
       </c>
       <c r="C86" t="n">
-        <v>6.69</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B87" t="n">
-        <v>109.7</v>
+        <v>110</v>
       </c>
       <c r="C87" t="n">
-        <v>6.82</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B88" t="n">
-        <v>109</v>
+        <v>109.7</v>
       </c>
       <c r="C88" t="n">
-        <v>6.34</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B89" t="n">
-        <v>108.7</v>
+        <v>109</v>
       </c>
       <c r="C89" t="n">
-        <v>6.67</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B90" t="n">
-        <v>107.9</v>
+        <v>108.7</v>
       </c>
       <c r="C90" t="n">
-        <v>6.31</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B91" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C91" t="n">
-        <v>6.15</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B92" t="n">
-        <v>106.4</v>
+        <v>107</v>
       </c>
       <c r="C92" t="n">
-        <v>6.08</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B93" t="n">
-        <v>105.9</v>
+        <v>106.4</v>
       </c>
       <c r="C93" t="n">
-        <v>5.79</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B94" t="n">
-        <v>104.5</v>
+        <v>105.9</v>
       </c>
       <c r="C94" t="n">
-        <v>4.08</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B95" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="C95" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B96" t="n">
-        <v>103.8</v>
+        <v>104.3</v>
       </c>
       <c r="C96" t="n">
-        <v>3.59</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B97" t="n">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="C97" t="n">
-        <v>3.7</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B98" t="n">
-        <v>103.1</v>
+        <v>103.6</v>
       </c>
       <c r="C98" t="n">
-        <v>3.31</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B99" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="C99" t="n">
-        <v>2.91</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B100" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="C100" t="n">
-        <v>3.02</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B101" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="C101" t="n">
-        <v>2.41</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B102" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="C102" t="n">
-        <v>1.91</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B103" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="C103" t="inlineStr"/>
+        <v>101.5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B104" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="C104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B105" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="C105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B106" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="C106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B107" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="C107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B108" t="n">
         <v>100.2</v>
@@ -1656,25 +1660,25 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B109" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B110" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B111" t="n">
         <v>99.8</v>
@@ -1683,16 +1687,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B112" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B113" t="n">
         <v>99.5</v>
@@ -1701,12 +1705,21 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
+        <v>42401</v>
+      </c>
+      <c r="B114" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
         <v>42370</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B115" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C114" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/lei.xlsx
+++ b/data/lei.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,771 +480,773 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.27</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.17</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.36</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.86</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.65</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.17</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>101.6</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>-1.45</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-3.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.23</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.68</v>
+        <v>-4.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.93</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.1</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.71</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.15</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.21</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>102.4</v>
+        <v>101.8</v>
       </c>
       <c r="C17" t="n">
-        <v>-5.45</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.2</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.81</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.87</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.62</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>103.9</v>
+        <v>103</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.64</v>
+        <v>-7.62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>104.6</v>
+        <v>103.9</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.84</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>105.4</v>
+        <v>104.6</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.62</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>105.8</v>
+        <v>105.4</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.52</v>
+        <v>-7.62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.82</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>106.7</v>
+        <v>106.1</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.94</v>
+        <v>-7.82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>107.4</v>
+        <v>106.7</v>
       </c>
       <c r="C28" t="n">
-        <v>-8.130000000000001</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>108.3</v>
+        <v>107.4</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.91</v>
+        <v>-8.130000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>109.6</v>
+        <v>108.3</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.8</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>110.2</v>
+        <v>109.6</v>
       </c>
       <c r="C31" t="n">
-        <v>-5.97</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>110.7</v>
+        <v>110.2</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.03</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>111.5</v>
+        <v>110.7</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.62</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>112.5</v>
+        <v>111.5</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.18</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>113.5</v>
+        <v>112.5</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.65</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>114.1</v>
+        <v>113.5</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.13</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>114.4</v>
+        <v>114.1</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.26</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>115.1</v>
+        <v>114.4</v>
       </c>
       <c r="C38" t="n">
-        <v>1.32</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>115.9</v>
+        <v>115.1</v>
       </c>
       <c r="C39" t="n">
-        <v>2.84</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>116.9</v>
+        <v>115.9</v>
       </c>
       <c r="C40" t="n">
-        <v>4.37</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>117.6</v>
+        <v>116.9</v>
       </c>
       <c r="C41" t="n">
-        <v>6.04</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>117.6</v>
       </c>
       <c r="C42" t="n">
-        <v>7.01</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>117.2</v>
+        <v>117.6</v>
       </c>
       <c r="C43" t="n">
-        <v>6.74</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>117.8</v>
+        <v>117.2</v>
       </c>
       <c r="C44" t="n">
-        <v>7.97</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>116.9</v>
+        <v>117.8</v>
       </c>
       <c r="C45" t="n">
-        <v>7.84</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>116.2</v>
+        <v>116.9</v>
       </c>
       <c r="C46" t="n">
-        <v>7.79</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>115.4</v>
+        <v>116.2</v>
       </c>
       <c r="C47" t="n">
-        <v>7.55</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>115.4</v>
       </c>
       <c r="C48" t="n">
-        <v>8.050000000000001</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>114.7</v>
+        <v>115.4</v>
       </c>
       <c r="C49" t="n">
-        <v>8.31</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>113.6</v>
+        <v>114.7</v>
       </c>
       <c r="C50" t="n">
-        <v>9.02</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>112.7</v>
+        <v>113.6</v>
       </c>
       <c r="C51" t="n">
-        <v>10.38</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>112</v>
+        <v>112.7</v>
       </c>
       <c r="C52" t="n">
-        <v>11.67</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>110.9</v>
+        <v>112</v>
       </c>
       <c r="C53" t="n">
-        <v>4.43</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>109.9</v>
+        <v>110.9</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.35</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.44</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>109.1</v>
+        <v>109.8</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.62</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44136</v>
-      </c>
-      <c r="B57" t="n">
-        <v>108.4</v>
+        <v>44166</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>109.1</v>
       </c>
       <c r="C57" t="n">
-        <v>-2.52</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B58" t="n">
-        <v>107.8</v>
+        <v>108.4</v>
       </c>
       <c r="C58" t="n">
-        <v>-3.14</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B59" t="n">
-        <v>107.3</v>
+        <v>107.8</v>
       </c>
       <c r="C59" t="n">
-        <v>-4.03</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B60" t="n">
-        <v>106.8</v>
+        <v>107.3</v>
       </c>
       <c r="C60" t="n">
-        <v>-4.73</v>
+        <v>-4.03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B61" t="n">
-        <v>105.9</v>
+        <v>106.8</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.7</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B62" t="n">
-        <v>104.2</v>
+        <v>105.9</v>
       </c>
       <c r="C62" t="n">
-        <v>-7.13</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B63" t="n">
-        <v>102.1</v>
+        <v>104.2</v>
       </c>
       <c r="C63" t="n">
-        <v>-9.08</v>
+        <v>-7.13</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B64" t="n">
-        <v>100.3</v>
+        <v>102.1</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.84</v>
+        <v>-9.08</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B65" t="n">
-        <v>106.2</v>
+        <v>100.3</v>
       </c>
       <c r="C65" t="n">
-        <v>-5.52</v>
+        <v>-10.84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B66" t="n">
-        <v>111.4</v>
+        <v>106.2</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.62</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B67" t="n">
         <v>111.4</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.18</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B68" t="n">
-        <v>110.9</v>
+        <v>111.4</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B69" t="n">
-        <v>111.2</v>
+        <v>110.9</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.71</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B70" t="n">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="C70" t="n">
         <v>-0.71</v>
@@ -1252,415 +1254,417 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B71" t="n">
-        <v>111.8</v>
+        <v>111.3</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.27</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B72" t="n">
-        <v>112.1</v>
+        <v>111.8</v>
       </c>
       <c r="C72" t="n">
-        <v>0.63</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B73" t="n">
-        <v>112.3</v>
+        <v>112.1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.99</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B74" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="C74" t="n">
-        <v>1.45</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B75" t="n">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="C75" t="n">
-        <v>2.09</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B76" t="n">
-        <v>112.5</v>
+        <v>112.3</v>
       </c>
       <c r="C76" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B77" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="C77" t="n">
-        <v>3.12</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B78" t="n">
-        <v>112.1</v>
+        <v>112.4</v>
       </c>
       <c r="C78" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B79" t="n">
-        <v>111.6</v>
+        <v>112.1</v>
       </c>
       <c r="C79" t="n">
-        <v>3.43</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B80" t="n">
-        <v>111.8</v>
+        <v>111.6</v>
       </c>
       <c r="C80" t="n">
-        <v>4.49</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B81" t="n">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="C81" t="n">
-        <v>5.26</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B82" t="n">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="C82" t="n">
-        <v>5.85</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B83" t="n">
         <v>112.1</v>
       </c>
       <c r="C83" t="n">
-        <v>7.27</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B84" t="n">
-        <v>111.4</v>
+        <v>112.1</v>
       </c>
       <c r="C84" t="n">
-        <v>6.81</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B85" t="n">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="C85" t="n">
-        <v>7.13</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B86" t="n">
-        <v>110.6</v>
+        <v>111.2</v>
       </c>
       <c r="C86" t="n">
-        <v>6.76</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B87" t="n">
-        <v>110</v>
+        <v>110.6</v>
       </c>
       <c r="C87" t="n">
-        <v>6.69</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B88" t="n">
-        <v>109.7</v>
+        <v>110</v>
       </c>
       <c r="C88" t="n">
-        <v>6.82</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B89" t="n">
-        <v>109</v>
+        <v>109.7</v>
       </c>
       <c r="C89" t="n">
-        <v>6.34</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B90" t="n">
-        <v>108.7</v>
+        <v>109</v>
       </c>
       <c r="C90" t="n">
-        <v>6.67</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B91" t="n">
-        <v>107.9</v>
+        <v>108.7</v>
       </c>
       <c r="C91" t="n">
-        <v>6.31</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B92" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C92" t="n">
-        <v>6.15</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B93" t="n">
-        <v>106.4</v>
+        <v>107</v>
       </c>
       <c r="C93" t="n">
-        <v>6.08</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B94" t="n">
-        <v>105.9</v>
+        <v>106.4</v>
       </c>
       <c r="C94" t="n">
-        <v>5.79</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B95" t="n">
-        <v>104.5</v>
+        <v>105.9</v>
       </c>
       <c r="C95" t="n">
-        <v>4.08</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B96" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="C96" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B97" t="n">
-        <v>103.8</v>
+        <v>104.3</v>
       </c>
       <c r="C97" t="n">
-        <v>3.59</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B98" t="n">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="C98" t="n">
-        <v>3.7</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B99" t="n">
-        <v>103.1</v>
+        <v>103.6</v>
       </c>
       <c r="C99" t="n">
-        <v>3.31</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B100" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="C100" t="n">
-        <v>2.91</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B101" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="C101" t="n">
-        <v>3.02</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B102" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="C102" t="n">
-        <v>2.41</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B103" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="C103" t="n">
-        <v>1.91</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B104" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="C104" t="inlineStr"/>
+        <v>101.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B105" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="C105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B106" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="C106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B107" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="C107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B108" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="C108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B109" t="n">
         <v>100.2</v>
@@ -1669,25 +1673,25 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B110" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B111" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B112" t="n">
         <v>99.8</v>
@@ -1696,16 +1700,16 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B113" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B114" t="n">
         <v>99.5</v>
@@ -1714,12 +1718,21 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
+        <v>42401</v>
+      </c>
+      <c r="B115" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
         <v>42370</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B116" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C115" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/lei.xlsx
+++ b/data/lei.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,784 +480,786 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.69</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.27</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.17</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.36</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.86</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.1</v>
+        <v>100.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.65</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.17</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>101.6</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>-1.45</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-3.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.23</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.68</v>
+        <v>-4.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.93</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.1</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.71</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.15</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="C17" t="n">
-        <v>-5.21</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>102.4</v>
+        <v>101.8</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.45</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.2</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.81</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.87</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="C22" t="n">
-        <v>-7.62</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>103.9</v>
+        <v>103</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.64</v>
+        <v>-7.62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>104.6</v>
+        <v>103.9</v>
       </c>
       <c r="C24" t="n">
-        <v>-7.84</v>
+        <v>-7.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>105.4</v>
+        <v>104.6</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.62</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>105.8</v>
+        <v>105.4</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.52</v>
+        <v>-7.62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>106.1</v>
+        <v>105.8</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.82</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>106.7</v>
+        <v>106.1</v>
       </c>
       <c r="C28" t="n">
-        <v>-7.94</v>
+        <v>-7.82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>107.4</v>
+        <v>106.7</v>
       </c>
       <c r="C29" t="n">
-        <v>-8.130000000000001</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>108.3</v>
+        <v>107.4</v>
       </c>
       <c r="C30" t="n">
-        <v>-7.91</v>
+        <v>-8.130000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>109.6</v>
+        <v>108.3</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.8</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>110.2</v>
+        <v>109.6</v>
       </c>
       <c r="C32" t="n">
-        <v>-5.97</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>110.7</v>
+        <v>110.2</v>
       </c>
       <c r="C33" t="n">
-        <v>-6.03</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>111.5</v>
+        <v>110.7</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.62</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>112.5</v>
+        <v>111.5</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.18</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>113.5</v>
+        <v>112.5</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.65</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>114.1</v>
+        <v>113.5</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.13</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>114.4</v>
+        <v>114.1</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.26</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>115.1</v>
+        <v>114.4</v>
       </c>
       <c r="C39" t="n">
-        <v>1.32</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>115.9</v>
+        <v>115.1</v>
       </c>
       <c r="C40" t="n">
-        <v>2.84</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>116.9</v>
+        <v>115.9</v>
       </c>
       <c r="C41" t="n">
-        <v>4.37</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>117.6</v>
+        <v>116.9</v>
       </c>
       <c r="C42" t="n">
-        <v>6.04</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>117.6</v>
       </c>
       <c r="C43" t="n">
-        <v>7.01</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>117.2</v>
+        <v>117.6</v>
       </c>
       <c r="C44" t="n">
-        <v>6.74</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>117.8</v>
+        <v>117.2</v>
       </c>
       <c r="C45" t="n">
-        <v>7.97</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>116.9</v>
+        <v>117.8</v>
       </c>
       <c r="C46" t="n">
-        <v>7.84</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>116.2</v>
+        <v>116.9</v>
       </c>
       <c r="C47" t="n">
-        <v>7.79</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>115.4</v>
+        <v>116.2</v>
       </c>
       <c r="C48" t="n">
-        <v>7.55</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>115.4</v>
       </c>
       <c r="C49" t="n">
-        <v>8.050000000000001</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>114.7</v>
+        <v>115.4</v>
       </c>
       <c r="C50" t="n">
-        <v>8.31</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>113.6</v>
+        <v>114.7</v>
       </c>
       <c r="C51" t="n">
-        <v>9.02</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>112.7</v>
+        <v>113.6</v>
       </c>
       <c r="C52" t="n">
-        <v>10.38</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>112</v>
+        <v>112.7</v>
       </c>
       <c r="C53" t="n">
-        <v>11.67</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>110.9</v>
+        <v>112</v>
       </c>
       <c r="C54" t="n">
-        <v>4.43</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>109.9</v>
+        <v>110.9</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.35</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.44</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>109.1</v>
+        <v>109.8</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.62</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44136</v>
-      </c>
-      <c r="B58" t="n">
-        <v>108.4</v>
+        <v>44166</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>109.1</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.52</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B59" t="n">
-        <v>107.8</v>
+        <v>108.4</v>
       </c>
       <c r="C59" t="n">
-        <v>-3.14</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B60" t="n">
-        <v>107.3</v>
+        <v>107.8</v>
       </c>
       <c r="C60" t="n">
-        <v>-4.03</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B61" t="n">
-        <v>106.8</v>
+        <v>107.3</v>
       </c>
       <c r="C61" t="n">
-        <v>-4.73</v>
+        <v>-4.03</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B62" t="n">
-        <v>105.9</v>
+        <v>106.8</v>
       </c>
       <c r="C62" t="n">
-        <v>-5.7</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B63" t="n">
-        <v>104.2</v>
+        <v>105.9</v>
       </c>
       <c r="C63" t="n">
-        <v>-7.13</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B64" t="n">
-        <v>102.1</v>
+        <v>104.2</v>
       </c>
       <c r="C64" t="n">
-        <v>-9.08</v>
+        <v>-7.13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B65" t="n">
-        <v>100.3</v>
+        <v>102.1</v>
       </c>
       <c r="C65" t="n">
-        <v>-10.84</v>
+        <v>-9.08</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B66" t="n">
-        <v>106.2</v>
+        <v>100.3</v>
       </c>
       <c r="C66" t="n">
-        <v>-5.52</v>
+        <v>-10.84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B67" t="n">
-        <v>111.4</v>
+        <v>106.2</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.62</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B68" t="n">
         <v>111.4</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.18</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B69" t="n">
-        <v>110.9</v>
+        <v>111.4</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B70" t="n">
-        <v>111.2</v>
+        <v>110.9</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.71</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B71" t="n">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="C71" t="n">
         <v>-0.71</v>
@@ -1265,415 +1267,417 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B72" t="n">
-        <v>111.8</v>
+        <v>111.3</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.27</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B73" t="n">
-        <v>112.1</v>
+        <v>111.8</v>
       </c>
       <c r="C73" t="n">
-        <v>0.63</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B74" t="n">
-        <v>112.3</v>
+        <v>112.1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.99</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B75" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="C75" t="n">
-        <v>1.45</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B76" t="n">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="C76" t="n">
-        <v>2.09</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B77" t="n">
-        <v>112.5</v>
+        <v>112.3</v>
       </c>
       <c r="C77" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B78" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="C78" t="n">
-        <v>3.12</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B79" t="n">
-        <v>112.1</v>
+        <v>112.4</v>
       </c>
       <c r="C79" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B80" t="n">
-        <v>111.6</v>
+        <v>112.1</v>
       </c>
       <c r="C80" t="n">
-        <v>3.43</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B81" t="n">
-        <v>111.8</v>
+        <v>111.6</v>
       </c>
       <c r="C81" t="n">
-        <v>4.49</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B82" t="n">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="C82" t="n">
-        <v>5.26</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B83" t="n">
-        <v>112.1</v>
+        <v>112</v>
       </c>
       <c r="C83" t="n">
-        <v>5.85</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B84" t="n">
         <v>112.1</v>
       </c>
       <c r="C84" t="n">
-        <v>7.27</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B85" t="n">
-        <v>111.4</v>
+        <v>112.1</v>
       </c>
       <c r="C85" t="n">
-        <v>6.81</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B86" t="n">
-        <v>111.2</v>
+        <v>111.4</v>
       </c>
       <c r="C86" t="n">
-        <v>7.13</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B87" t="n">
-        <v>110.6</v>
+        <v>111.2</v>
       </c>
       <c r="C87" t="n">
-        <v>6.76</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B88" t="n">
-        <v>110</v>
+        <v>110.6</v>
       </c>
       <c r="C88" t="n">
-        <v>6.69</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B89" t="n">
-        <v>109.7</v>
+        <v>110</v>
       </c>
       <c r="C89" t="n">
-        <v>6.82</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B90" t="n">
-        <v>109</v>
+        <v>109.7</v>
       </c>
       <c r="C90" t="n">
-        <v>6.34</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B91" t="n">
-        <v>108.7</v>
+        <v>109</v>
       </c>
       <c r="C91" t="n">
-        <v>6.67</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B92" t="n">
-        <v>107.9</v>
+        <v>108.7</v>
       </c>
       <c r="C92" t="n">
-        <v>6.31</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B93" t="n">
-        <v>107</v>
+        <v>107.9</v>
       </c>
       <c r="C93" t="n">
-        <v>6.15</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B94" t="n">
-        <v>106.4</v>
+        <v>107</v>
       </c>
       <c r="C94" t="n">
-        <v>6.08</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B95" t="n">
-        <v>105.9</v>
+        <v>106.4</v>
       </c>
       <c r="C95" t="n">
-        <v>5.79</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B96" t="n">
-        <v>104.5</v>
+        <v>105.9</v>
       </c>
       <c r="C96" t="n">
-        <v>4.08</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B97" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="C97" t="n">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B98" t="n">
-        <v>103.8</v>
+        <v>104.3</v>
       </c>
       <c r="C98" t="n">
-        <v>3.59</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B99" t="n">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="C99" t="n">
-        <v>3.7</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B100" t="n">
-        <v>103.1</v>
+        <v>103.6</v>
       </c>
       <c r="C100" t="n">
-        <v>3.31</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B101" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="C101" t="n">
-        <v>2.91</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B102" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="C102" t="n">
-        <v>3.02</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B103" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="C103" t="n">
-        <v>2.41</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B104" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="C104" t="n">
-        <v>1.91</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B105" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="C105" t="inlineStr"/>
+        <v>101.5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B106" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="C106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B107" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="C107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B108" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="C108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B109" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="C109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B110" t="n">
         <v>100.2</v>
@@ -1682,25 +1686,25 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B111" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B112" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B113" t="n">
         <v>99.8</v>
@@ -1709,16 +1713,16 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B114" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B115" t="n">
         <v>99.5</v>
@@ -1727,12 +1731,21 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
+        <v>42401</v>
+      </c>
+      <c r="B116" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
         <v>42370</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B117" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C116" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
